--- a/data/overview_scanned_studies_7062019.xlsx
+++ b/data/overview_scanned_studies_7062019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Dropbox/projects/current/rpt_behav_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6905D8A3-6410-F645-9D37-59186FDDA910}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698755C6-28CA-DE43-822E-F7EFFE8F765C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35980" yWindow="1340" windowWidth="32920" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40820" yWindow="1220" windowWidth="32920" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4309,9 +4309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K204" sqref="K204"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4613,32 +4613,32 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>2017</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>86</v>
       </c>
-      <c r="AB9" s="7" t="s">
+      <c r="AB9" s="5" t="s">
         <v>1260</v>
       </c>
     </row>
@@ -4926,61 +4926,61 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>2016</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <v>6</v>
       </c>
-      <c r="AB20" s="4" t="s">
+      <c r="AB20" s="2" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="11">
         <v>2012</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="11">
         <v>279</v>
       </c>
-      <c r="AB21" s="10" t="s">
+      <c r="AB21" s="11" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -6030,32 +6030,32 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
+    <row r="59" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="6">
         <v>2014</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J59" s="6">
         <v>25</v>
       </c>
-      <c r="AB59" s="10" t="s">
+      <c r="AB59" s="6" t="s">
         <v>1260</v>
       </c>
     </row>
